--- a/utile/DOCS/testsDonnees.xlsx
+++ b/utile/DOCS/testsDonnees.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="673">
   <si>
     <t>Entités</t>
   </si>
@@ -1689,195 +1689,9 @@
     <t>Réaliser le montage et démontage de mobiliers tertiaires</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
-    <t>1.1.4</t>
-  </si>
-  <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
-    <t>1.1.6</t>
-  </si>
-  <si>
-    <t>1.1.7</t>
-  </si>
-  <si>
-    <t>1.1.8</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
-    <t>1.2.6</t>
-  </si>
-  <si>
-    <t>1.2.7</t>
-  </si>
-  <si>
-    <t>1.2.8</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>1.3.3</t>
-  </si>
-  <si>
-    <t>1.3.4</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
-    <t>1.4.3</t>
-  </si>
-  <si>
-    <t>1.4.4</t>
-  </si>
-  <si>
-    <t>1.4.5</t>
-  </si>
-  <si>
-    <t>1.4.6</t>
-  </si>
-  <si>
-    <t>1.4.7</t>
-  </si>
-  <si>
-    <t>1.4.8</t>
-  </si>
-  <si>
-    <t>1.4.9</t>
-  </si>
-  <si>
-    <t>1.4.10</t>
-  </si>
-  <si>
-    <t>1.4.11</t>
-  </si>
-  <si>
-    <t>1.4.12</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>2.2.3</t>
-  </si>
-  <si>
-    <t>2.2.4</t>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <t>2.3.2</t>
-  </si>
-  <si>
-    <t>2.3.3</t>
-  </si>
-  <si>
-    <t>2.3.4</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>3.1.2</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
-    <t>3.2.3</t>
-  </si>
-  <si>
-    <t>3.2.4</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>3.3.2</t>
-  </si>
-  <si>
-    <t>3.3.3</t>
-  </si>
-  <si>
-    <t>3.3.4</t>
-  </si>
-  <si>
     <t>image 1</t>
   </si>
   <si>
@@ -2032,6 +1846,195 @@
   </si>
   <si>
     <t>image 52</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>1.01.01</t>
+  </si>
+  <si>
+    <t>1.01.02</t>
+  </si>
+  <si>
+    <t>1.01.03</t>
+  </si>
+  <si>
+    <t>1.01.04</t>
+  </si>
+  <si>
+    <t>1.01.05</t>
+  </si>
+  <si>
+    <t>1.01.06</t>
+  </si>
+  <si>
+    <t>Réaliser la pose de différents éléments menuisés manufacturés (plinthes, protections, tablettes, etc.0)</t>
+  </si>
+  <si>
+    <t>1.01.07</t>
+  </si>
+  <si>
+    <t>1.01.08</t>
+  </si>
+  <si>
+    <t>1.02.01</t>
+  </si>
+  <si>
+    <t>1.02.02</t>
+  </si>
+  <si>
+    <t>1.02.03</t>
+  </si>
+  <si>
+    <t>1.02.04</t>
+  </si>
+  <si>
+    <t>1.02.05</t>
+  </si>
+  <si>
+    <t>1.02.06</t>
+  </si>
+  <si>
+    <t>1.02.07</t>
+  </si>
+  <si>
+    <t>1.02.08</t>
+  </si>
+  <si>
+    <t>1.03.01</t>
+  </si>
+  <si>
+    <t>1.03.02</t>
+  </si>
+  <si>
+    <t>1.03.03</t>
+  </si>
+  <si>
+    <t>1.03.04</t>
+  </si>
+  <si>
+    <t>1.04.01</t>
+  </si>
+  <si>
+    <t>1.04.02</t>
+  </si>
+  <si>
+    <t>1.04.03</t>
+  </si>
+  <si>
+    <t>1.04.04</t>
+  </si>
+  <si>
+    <t>1.04.05</t>
+  </si>
+  <si>
+    <t>1.04.06</t>
+  </si>
+  <si>
+    <t>1.04.07</t>
+  </si>
+  <si>
+    <t>1.04.08</t>
+  </si>
+  <si>
+    <t>1.04.09</t>
+  </si>
+  <si>
+    <t>2.01.01</t>
+  </si>
+  <si>
+    <t>2.01.02</t>
+  </si>
+  <si>
+    <t>2.02.01</t>
+  </si>
+  <si>
+    <t>2.02.02</t>
+  </si>
+  <si>
+    <t>2.02.03</t>
+  </si>
+  <si>
+    <t>2.02.04</t>
+  </si>
+  <si>
+    <t>2.03.01</t>
+  </si>
+  <si>
+    <t>2.03.02</t>
+  </si>
+  <si>
+    <t>2.03.03</t>
+  </si>
+  <si>
+    <t>2.03.04</t>
+  </si>
+  <si>
+    <t>3.01.01</t>
+  </si>
+  <si>
+    <t>3.01.02</t>
+  </si>
+  <si>
+    <t>3.02.01</t>
+  </si>
+  <si>
+    <t>3.02.02</t>
+  </si>
+  <si>
+    <t>3.02.03</t>
+  </si>
+  <si>
+    <t>3.02.04</t>
+  </si>
+  <si>
+    <t>3.03.01</t>
+  </si>
+  <si>
+    <t>3.03.02</t>
+  </si>
+  <si>
+    <t>3.03.03</t>
+  </si>
+  <si>
+    <t>3.03.04</t>
+  </si>
+  <si>
+    <t>1.04.10</t>
+  </si>
+  <si>
+    <t>1.04.11</t>
+  </si>
+  <si>
+    <t>1.04.12</t>
   </si>
 </sst>
 </file>
@@ -2845,6 +2848,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2918,180 +3095,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3451,7 +3454,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="179" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -3465,7 +3468,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="193"/>
+      <c r="A4" s="211"/>
       <c r="B4" s="47" t="s">
         <v>101</v>
       </c>
@@ -3477,7 +3480,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="193"/>
+      <c r="A5" s="211"/>
       <c r="B5" s="47" t="s">
         <v>102</v>
       </c>
@@ -3489,7 +3492,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
+      <c r="A6" s="211"/>
       <c r="B6" s="47" t="s">
         <v>103</v>
       </c>
@@ -3501,7 +3504,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
+      <c r="A7" s="211"/>
       <c r="B7" s="47" t="s">
         <v>104</v>
       </c>
@@ -3513,7 +3516,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="194"/>
+      <c r="A8" s="212"/>
       <c r="B8" s="46" t="s">
         <v>105</v>
       </c>
@@ -3526,7 +3529,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="182" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="50" t="s">
@@ -3540,7 +3543,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
+      <c r="A11" s="213"/>
       <c r="B11" s="52" t="s">
         <v>106</v>
       </c>
@@ -3553,7 +3556,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="197" t="s">
+      <c r="A13" s="214" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -3567,7 +3570,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="198"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="56" t="s">
         <v>107</v>
       </c>
@@ -3580,7 +3583,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="216" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -3594,7 +3597,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="200"/>
+      <c r="A17" s="217"/>
       <c r="B17" s="60" t="s">
         <v>108</v>
       </c>
@@ -3606,7 +3609,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="200"/>
+      <c r="A18" s="217"/>
       <c r="B18" s="60" t="s">
         <v>109</v>
       </c>
@@ -3618,7 +3621,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="201"/>
+      <c r="A19" s="218"/>
       <c r="B19" s="62" t="s">
         <v>110</v>
       </c>
@@ -3631,7 +3634,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="202" t="s">
+      <c r="A21" s="219" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="64" t="s">
@@ -3645,7 +3648,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="203"/>
+      <c r="A22" s="220"/>
       <c r="B22" s="66" t="s">
         <v>111</v>
       </c>
@@ -3657,7 +3660,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="203"/>
+      <c r="A23" s="220"/>
       <c r="B23" s="66" t="s">
         <v>112</v>
       </c>
@@ -3669,7 +3672,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="204"/>
+      <c r="A24" s="221"/>
       <c r="B24" s="68" t="s">
         <v>113</v>
       </c>
@@ -3682,7 +3685,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="217" t="s">
+      <c r="A26" s="176" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="70" t="s">
@@ -3696,7 +3699,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="218"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="72" t="s">
         <v>114</v>
       </c>
@@ -3708,7 +3711,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="218"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="72" t="s">
         <v>115</v>
       </c>
@@ -3720,7 +3723,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="218"/>
+      <c r="A29" s="177"/>
       <c r="B29" s="72" t="s">
         <v>116</v>
       </c>
@@ -3732,7 +3735,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="218"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="72" t="s">
         <v>30</v>
       </c>
@@ -3744,7 +3747,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="219"/>
+      <c r="A31" s="178"/>
       <c r="B31" s="74" t="s">
         <v>31</v>
       </c>
@@ -3757,7 +3760,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="228" t="s">
+      <c r="A33" s="189" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="76" t="s">
@@ -3771,7 +3774,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="229"/>
+      <c r="A34" s="190"/>
       <c r="B34" s="78" t="s">
         <v>117</v>
       </c>
@@ -3784,7 +3787,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="230" t="s">
+      <c r="A36" s="191" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="80" t="s">
@@ -3798,7 +3801,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="231"/>
+      <c r="A37" s="192"/>
       <c r="B37" s="82" t="s">
         <v>118</v>
       </c>
@@ -3811,7 +3814,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="232" t="s">
+      <c r="A39" s="193" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="160" t="s">
@@ -3825,7 +3828,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="233"/>
+      <c r="A40" s="194"/>
       <c r="B40" s="85" t="s">
         <v>119</v>
       </c>
@@ -3837,7 +3840,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="233"/>
+      <c r="A41" s="194"/>
       <c r="B41" s="85" t="s">
         <v>120</v>
       </c>
@@ -3849,7 +3852,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="234"/>
+      <c r="A42" s="195"/>
       <c r="B42" s="87" t="s">
         <v>121</v>
       </c>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="235" t="s">
+      <c r="A44" s="196" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="158" t="s">
@@ -3876,7 +3879,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="236"/>
+      <c r="A45" s="197"/>
       <c r="B45" s="90" t="s">
         <v>122</v>
       </c>
@@ -3888,7 +3891,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="237"/>
+      <c r="A46" s="198"/>
       <c r="B46" s="92" t="s">
         <v>123</v>
       </c>
@@ -3901,7 +3904,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="238" t="s">
+      <c r="A48" s="199" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="150" t="s">
@@ -3915,7 +3918,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="239"/>
+      <c r="A49" s="200"/>
       <c r="B49" s="95" t="s">
         <v>124</v>
       </c>
@@ -3927,7 +3930,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="240"/>
+      <c r="A50" s="201"/>
       <c r="B50" s="97" t="s">
         <v>125</v>
       </c>
@@ -3940,7 +3943,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="241" t="s">
+      <c r="A52" s="202" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="152" t="s">
@@ -3954,7 +3957,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="242"/>
+      <c r="A53" s="203"/>
       <c r="B53" s="99" t="s">
         <v>126</v>
       </c>
@@ -3966,7 +3969,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="243"/>
+      <c r="A54" s="204"/>
       <c r="B54" s="52" t="s">
         <v>127</v>
       </c>
@@ -3979,7 +3982,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="244" t="s">
+      <c r="A56" s="205" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="154" t="s">
@@ -3993,7 +3996,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="245"/>
+      <c r="A57" s="206"/>
       <c r="B57" s="102" t="s">
         <v>128</v>
       </c>
@@ -4005,7 +4008,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="246"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="102" t="s">
         <v>129</v>
       </c>
@@ -4018,7 +4021,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="189" t="s">
+      <c r="A60" s="208" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="156" t="s">
@@ -4032,7 +4035,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="190"/>
+      <c r="A61" s="209"/>
       <c r="B61" s="106" t="s">
         <v>130</v>
       </c>
@@ -4044,7 +4047,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="191"/>
+      <c r="A62" s="210"/>
       <c r="B62" s="108" t="s">
         <v>131</v>
       </c>
@@ -4057,7 +4060,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="167" t="s">
+      <c r="A64" s="225" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="110" t="s">
@@ -4071,7 +4074,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="168"/>
+      <c r="A65" s="226"/>
       <c r="B65" s="112" t="s">
         <v>132</v>
       </c>
@@ -4083,7 +4086,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="169"/>
+      <c r="A66" s="227"/>
       <c r="B66" s="114" t="s">
         <v>133</v>
       </c>
@@ -4096,7 +4099,7 @@
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="170" t="s">
+      <c r="A68" s="228" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="116" t="s">
@@ -4110,7 +4113,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="171"/>
+      <c r="A69" s="229"/>
       <c r="B69" s="118" t="s">
         <v>134</v>
       </c>
@@ -4122,7 +4125,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="172"/>
+      <c r="A70" s="230"/>
       <c r="B70" s="120" t="s">
         <v>135</v>
       </c>
@@ -4135,7 +4138,7 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="225" t="s">
+      <c r="A72" s="186" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="122" t="s">
@@ -4149,7 +4152,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="226"/>
+      <c r="A73" s="187"/>
       <c r="B73" s="124" t="s">
         <v>136</v>
       </c>
@@ -4161,7 +4164,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="226"/>
+      <c r="A74" s="187"/>
       <c r="B74" s="124" t="s">
         <v>137</v>
       </c>
@@ -4173,7 +4176,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="226"/>
+      <c r="A75" s="187"/>
       <c r="B75" s="124" t="s">
         <v>138</v>
       </c>
@@ -4185,7 +4188,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="226"/>
+      <c r="A76" s="187"/>
       <c r="B76" s="124" t="s">
         <v>139</v>
       </c>
@@ -4197,7 +4200,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="226"/>
+      <c r="A77" s="187"/>
       <c r="B77" s="124" t="s">
         <v>140</v>
       </c>
@@ -4209,7 +4212,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="227"/>
+      <c r="A78" s="188"/>
       <c r="B78" s="126" t="s">
         <v>71</v>
       </c>
@@ -4222,14 +4225,14 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="192" t="s">
+      <c r="B80" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="220"/>
-      <c r="D80" s="220"/>
-      <c r="E80" s="220"/>
-      <c r="F80" s="220"/>
-      <c r="G80" s="221"/>
+      <c r="C80" s="180"/>
+      <c r="D80" s="180"/>
+      <c r="E80" s="180"/>
+      <c r="F80" s="180"/>
+      <c r="G80" s="181"/>
     </row>
     <row r="81" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="45" t="s">
@@ -4494,10 +4497,10 @@
     </row>
     <row r="94" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="195" t="s">
+      <c r="B95" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="222"/>
+      <c r="C95" s="183"/>
     </row>
     <row r="96" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="128" t="s">
@@ -4533,10 +4536,10 @@
     </row>
     <row r="100" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="223" t="s">
+      <c r="B101" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="224"/>
+      <c r="C101" s="185"/>
     </row>
     <row r="102" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="129" t="s">
@@ -4580,12 +4583,12 @@
       <c r="H106" s="135"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="180" t="s">
+      <c r="B107" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="181"/>
-      <c r="D107" s="181"/>
-      <c r="E107" s="182"/>
+      <c r="C107" s="239"/>
+      <c r="D107" s="239"/>
+      <c r="E107" s="240"/>
       <c r="H107" s="135"/>
     </row>
     <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4728,12 +4731,12 @@
     </row>
     <row r="117" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="183" t="s">
+      <c r="B118" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="184"/>
-      <c r="D118" s="184"/>
-      <c r="E118" s="185"/>
+      <c r="C118" s="242"/>
+      <c r="D118" s="242"/>
+      <c r="E118" s="243"/>
     </row>
     <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="131" t="s">
@@ -4821,14 +4824,14 @@
     </row>
     <row r="125" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="186" t="s">
+      <c r="B126" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="C126" s="187"/>
-      <c r="D126" s="187"/>
-      <c r="E126" s="187"/>
-      <c r="F126" s="187"/>
-      <c r="G126" s="188"/>
+      <c r="C126" s="245"/>
+      <c r="D126" s="245"/>
+      <c r="E126" s="245"/>
+      <c r="F126" s="245"/>
+      <c r="G126" s="246"/>
     </row>
     <row r="127" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="138" t="s">
@@ -4961,10 +4964,10 @@
     </row>
     <row r="134" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="173" t="s">
+      <c r="B135" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="C135" s="174"/>
+      <c r="C135" s="232"/>
     </row>
     <row r="136" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="139" t="s">
@@ -5151,10 +5154,10 @@
     </row>
     <row r="172" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="175" t="s">
+      <c r="B173" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="C173" s="176"/>
+      <c r="C173" s="234"/>
     </row>
     <row r="174" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="140" t="s">
@@ -5182,12 +5185,12 @@
     </row>
     <row r="177" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B178" s="177" t="s">
+      <c r="B178" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="C178" s="178"/>
-      <c r="D178" s="178"/>
-      <c r="E178" s="179"/>
+      <c r="C178" s="236"/>
+      <c r="D178" s="236"/>
+      <c r="E178" s="237"/>
     </row>
     <row r="179" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="141" t="s">
@@ -6245,11 +6248,11 @@
     </row>
     <row r="232" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B233" s="164" t="s">
+      <c r="B233" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="C233" s="165"/>
-      <c r="D233" s="166"/>
+      <c r="C233" s="223"/>
+      <c r="D233" s="224"/>
     </row>
     <row r="234" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B234" s="143" t="s">
@@ -6344,11 +6347,11 @@
     </row>
     <row r="245" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B246" s="205" t="s">
+      <c r="B246" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="C246" s="206"/>
-      <c r="D246" s="207"/>
+      <c r="C246" s="165"/>
+      <c r="D246" s="166"/>
     </row>
     <row r="247" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B247" s="145" t="s">
@@ -6396,11 +6399,11 @@
     </row>
     <row r="251" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B252" s="208" t="s">
+      <c r="B252" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="C252" s="209"/>
-      <c r="D252" s="210"/>
+      <c r="C252" s="168"/>
+      <c r="D252" s="169"/>
     </row>
     <row r="253" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B253" s="128" t="s">
@@ -6448,11 +6451,11 @@
     </row>
     <row r="257" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="211" t="s">
+      <c r="B258" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="C258" s="212"/>
-      <c r="D258" s="213"/>
+      <c r="C258" s="171"/>
+      <c r="D258" s="172"/>
     </row>
     <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B259" s="146" t="s">
@@ -6511,11 +6514,11 @@
     </row>
     <row r="264" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B265" s="214" t="s">
+      <c r="B265" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="C265" s="215"/>
-      <c r="D265" s="216"/>
+      <c r="C265" s="174"/>
+      <c r="D265" s="175"/>
     </row>
     <row r="266" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B266" s="149" t="s">
@@ -9873,6 +9876,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B246:D246"/>
     <mergeCell ref="B252:D252"/>
     <mergeCell ref="B258:D258"/>
@@ -9889,21 +9907,6 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B233:D233"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B126:G126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9914,8 +9917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E38" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G70"/>
+    <sheetView tabSelected="1" topLeftCell="E33" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9929,7 +9932,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>124</v>
@@ -10005,14 +10008,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="163" t="s">
-        <v>557</v>
+        <v>610</v>
       </c>
       <c r="D7" t="s">
         <v>327</v>
       </c>
       <c r="G7" t="str">
         <f>"INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"""&amp;C7&amp;""","""&amp;D7&amp;""","&amp;B7&amp;");"</f>
-        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"1.1","Effectuer la maintenance améliorative courante des aménagements intérieurs d’un bâtiment",1);</v>
+        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"1.01","Effectuer la maintenance améliorative courante des aménagements intérieurs d’un bâtiment",1);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -10023,14 +10026,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="163" t="s">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="D8" t="s">
         <v>329</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ref="G8:G16" si="1">"INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"""&amp;C8&amp;""","""&amp;D8&amp;""","&amp;B8&amp;");"</f>
-        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"1.2","Effectuer la maintenance améliorative courante des revêtements intérieurs d’un bâtiment",1);</v>
+        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"1.02","Effectuer la maintenance améliorative courante des revêtements intérieurs d’un bâtiment",1);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -10041,14 +10044,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>559</v>
+        <v>612</v>
       </c>
       <c r="D9" t="s">
         <v>331</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"1.3","Effectuer la maintenance préventive courante des menuiseries et fermetures d’un bâtiment",1);</v>
+        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"1.03","Effectuer la maintenance préventive courante des menuiseries et fermetures d’un bâtiment",1);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -10059,14 +10062,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="163" t="s">
-        <v>560</v>
+        <v>613</v>
       </c>
       <c r="D10" t="s">
         <v>333</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"1.4","Effectuer la maintenance corrective courante des aménagements intérieurs d’un bâtiment",1);</v>
+        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"1.04","Effectuer la maintenance corrective courante des aménagements intérieurs d’un bâtiment",1);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -10077,14 +10080,14 @@
         <v>2</v>
       </c>
       <c r="C11" s="163" t="s">
-        <v>561</v>
+        <v>614</v>
       </c>
       <c r="D11" t="s">
         <v>335</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"2.1","Effectuer la maintenance améliorative courante d’une installation électrique monophasée d’un bâtiment",2);</v>
+        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"2.01","Effectuer la maintenance améliorative courante d’une installation électrique monophasée d’un bâtiment",2);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10095,14 +10098,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="163" t="s">
-        <v>562</v>
+        <v>615</v>
       </c>
       <c r="D12" t="s">
         <v>337</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"2.2","Effectuer la maintenance préventive courante de l’installation et des équipements électriques d’un bâtiment",2);</v>
+        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"2.02","Effectuer la maintenance préventive courante de l’installation et des équipements électriques d’un bâtiment",2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -10113,14 +10116,14 @@
         <v>2</v>
       </c>
       <c r="C13" s="163" t="s">
-        <v>563</v>
+        <v>616</v>
       </c>
       <c r="D13" t="s">
         <v>339</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"2.3","Effectuer la maintenance corrective courante de l’installation et des équipements électriques d’un bâtiment",2);</v>
+        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"2.03","Effectuer la maintenance corrective courante de l’installation et des équipements électriques d’un bâtiment",2);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10131,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="163" t="s">
-        <v>564</v>
+        <v>617</v>
       </c>
       <c r="D14" t="s">
         <v>340</v>
@@ -10144,7 +10147,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"3.1","Effectuer la maintenance améliorative courante de l’installation sanitaire d’un bâtiment",3);</v>
+        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"3.01","Effectuer la maintenance améliorative courante de l’installation sanitaire d’un bâtiment",3);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -10155,14 +10158,14 @@
         <v>3</v>
       </c>
       <c r="C15" s="163" t="s">
-        <v>566</v>
+        <v>618</v>
       </c>
       <c r="D15" t="s">
         <v>343</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"3.2","Effectuer la maintenance préventive courante de l’installation et des équipements thermiques et sanitaires d’un bâtiment",3);</v>
+        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"3.02","Effectuer la maintenance préventive courante de l’installation et des équipements thermiques et sanitaires d’un bâtiment",3);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -10173,14 +10176,14 @@
         <v>3</v>
       </c>
       <c r="C16" s="163" t="s">
-        <v>567</v>
+        <v>619</v>
       </c>
       <c r="D16" t="s">
         <v>345</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"3.3","Effectuer la maintenance corrective courante de l’installation et des équipements thermiques et sanitaires d’un bâtiment",3);</v>
+        <v>INSERT INTO amb_mesm(idMesm, numeroMesm, libelleMesm, idBlocComp) VALUES (NULL,"3.03","Effectuer la maintenance corrective courante de l’installation et des équipements thermiques et sanitaires d’un bâtiment",3);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -10208,17 +10211,17 @@
         <v>1</v>
       </c>
       <c r="C19" s="163" t="s">
-        <v>568</v>
+        <v>620</v>
       </c>
       <c r="D19" t="s">
         <v>555</v>
       </c>
       <c r="E19" t="s">
-        <v>620</v>
+        <v>558</v>
       </c>
       <c r="G19" t="str">
         <f>"INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"""&amp;C19&amp;""","""&amp;D19&amp;""","""&amp;E19&amp;""","&amp;B19&amp;");"</f>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.1.1","Préparer une intervention","image 1",1);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.01.01","Préparer une intervention","image 1",1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10229,17 +10232,17 @@
         <v>1</v>
       </c>
       <c r="C20" s="163" t="s">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="D20" t="s">
         <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>621</v>
+        <v>559</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ref="G20:G70" si="2">"INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"""&amp;C20&amp;""","""&amp;D20&amp;""","""&amp;E20&amp;""","&amp;B20&amp;");"</f>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.1.2","Déconstruire de menus ouvrages d'aménagements intérieurs d'un bâtiment","image 2",1);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.01.02","Déconstruire de menus ouvrages d'aménagements intérieurs d'un bâtiment","image 2",1);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10250,17 +10253,17 @@
         <v>1</v>
       </c>
       <c r="C21" s="163" t="s">
-        <v>570</v>
+        <v>622</v>
       </c>
       <c r="D21" t="s">
         <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>622</v>
+        <v>560</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.1.3","Construire une cloison de distribution","image 3",1);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.01.03","Construire une cloison de distribution","image 3",1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10271,17 +10274,17 @@
         <v>1</v>
       </c>
       <c r="C22" s="163" t="s">
-        <v>571</v>
+        <v>623</v>
       </c>
       <c r="D22" t="s">
         <v>278</v>
       </c>
       <c r="E22" t="s">
-        <v>623</v>
+        <v>561</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.1.4","Construire un faux plafond de petite surface","image 4",1);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.01.04","Construire un faux plafond de petite surface","image 4",1);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10292,17 +10295,17 @@
         <v>1</v>
       </c>
       <c r="C23" s="163" t="s">
-        <v>572</v>
+        <v>624</v>
       </c>
       <c r="D23" t="s">
         <v>279</v>
       </c>
       <c r="E23" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.1.5","Réaliser des ouvrages simples d'aménagement et de protection","image 5",1);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.01.05","Réaliser des ouvrages simples d'aménagement et de protection","image 5",1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10313,17 +10316,17 @@
         <v>1</v>
       </c>
       <c r="C24" s="163" t="s">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="D24" t="s">
-        <v>280</v>
+        <v>626</v>
       </c>
       <c r="E24" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.1.6","Réaliser la pose de différents éléments menuisés manufacturés (plinthes, protections, tablettes, etc.)","image 6",1);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.01.06","Réaliser la pose de différents éléments menuisés manufacturés (plinthes, protections, tablettes, etc.0)","image 6",1);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -10334,17 +10337,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="163" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="D25" t="s">
         <v>556</v>
       </c>
       <c r="E25" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.1.7","Réaliser le montage et démontage de mobiliers tertiaires","image 7",1);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.01.07","Réaliser le montage et démontage de mobiliers tertiaires","image 7",1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10355,17 +10358,17 @@
         <v>1</v>
       </c>
       <c r="C26" s="163" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
       <c r="D26" t="s">
         <v>282</v>
       </c>
       <c r="E26" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.1.8","Remplacer une serrure sur une menuiserie intérieure","image 8",1);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.01.08","Remplacer une serrure sur une menuiserie intérieure","image 8",1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10376,20 +10379,20 @@
         <v>2</v>
       </c>
       <c r="C27" s="163" t="s">
-        <v>577</v>
+        <v>629</v>
       </c>
       <c r="D27" t="s">
         <v>283</v>
       </c>
       <c r="E27" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
       <c r="F27" t="s">
         <v>221</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.2.1","Poser un plafond démontable en dalles","image 9",2);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.02.01","Poser un plafond démontable en dalles","image 9",2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -10400,20 +10403,20 @@
         <v>2</v>
       </c>
       <c r="C28" s="163" t="s">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="D28" t="s">
         <v>284</v>
       </c>
       <c r="E28" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="F28" t="s">
         <v>221</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.2.2","Poser au sol des carreaux céramiques","image 10",2);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.02.02","Poser au sol des carreaux céramiques","image 10",2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -10424,20 +10427,20 @@
         <v>2</v>
       </c>
       <c r="C29" s="163" t="s">
-        <v>579</v>
+        <v>631</v>
       </c>
       <c r="D29" t="s">
         <v>285</v>
       </c>
       <c r="E29" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="F29" t="s">
         <v>221</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.2.3","Poser sur un mur des carreaux céramiques","image 11",2);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.02.03","Poser sur un mur des carreaux céramiques","image 11",2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10448,20 +10451,20 @@
         <v>2</v>
       </c>
       <c r="C30" s="163" t="s">
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="D30" t="s">
         <v>286</v>
       </c>
       <c r="E30" t="s">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="F30" t="s">
         <v>221</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.2.4","Poser un revêtement décoratif","image 12",2);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.02.04","Poser un revêtement décoratif","image 12",2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -10472,20 +10475,20 @@
         <v>2</v>
       </c>
       <c r="C31" s="163" t="s">
-        <v>581</v>
+        <v>633</v>
       </c>
       <c r="D31" t="s">
         <v>287</v>
       </c>
       <c r="E31" t="s">
-        <v>632</v>
+        <v>570</v>
       </c>
       <c r="F31" t="s">
         <v>221</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.2.5","Mettre en peinture (Finition B) un plafond","image 13",2);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.02.05","Mettre en peinture (Finition B) un plafond","image 13",2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10496,20 +10499,20 @@
         <v>2</v>
       </c>
       <c r="C32" s="163" t="s">
-        <v>582</v>
+        <v>634</v>
       </c>
       <c r="D32" t="s">
         <v>288</v>
       </c>
       <c r="E32" t="s">
-        <v>633</v>
+        <v>571</v>
       </c>
       <c r="F32" t="s">
         <v>221</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.2.6","Mettre en peinture (Finition B) un mur","image 14",2);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.02.06","Mettre en peinture (Finition B) un mur","image 14",2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -10520,20 +10523,20 @@
         <v>2</v>
       </c>
       <c r="C33" s="163" t="s">
-        <v>583</v>
+        <v>635</v>
       </c>
       <c r="D33" t="s">
         <v>289</v>
       </c>
       <c r="E33" t="s">
-        <v>634</v>
+        <v>572</v>
       </c>
       <c r="F33" t="s">
         <v>221</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.2.7","Mettre en peinture (Finition B) une menuiserie bois","image 15",2);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.02.07","Mettre en peinture (Finition B) une menuiserie bois","image 15",2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10544,20 +10547,20 @@
         <v>2</v>
       </c>
       <c r="C34" s="163" t="s">
-        <v>584</v>
+        <v>636</v>
       </c>
       <c r="D34" t="s">
         <v>290</v>
       </c>
       <c r="E34" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="F34" t="s">
         <v>221</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.2.8","Poser au sol un revêtement PVC en dalles","image 16",2);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.02.08","Poser au sol un revêtement PVC en dalles","image 16",2);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -10568,20 +10571,20 @@
         <v>3</v>
       </c>
       <c r="C35" s="163" t="s">
-        <v>585</v>
+        <v>637</v>
       </c>
       <c r="D35" t="s">
         <v>291</v>
       </c>
       <c r="E35" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="F35" t="s">
         <v>221</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.3.1","Maintenir en état de fonctionnement une menuiserie intérieure","image 17",3);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.03.01","Maintenir en état de fonctionnement une menuiserie intérieure","image 17",3);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10592,20 +10595,20 @@
         <v>3</v>
       </c>
       <c r="C36" s="163" t="s">
-        <v>586</v>
+        <v>638</v>
       </c>
       <c r="D36" t="s">
         <v>292</v>
       </c>
       <c r="E36" t="s">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.3.2","Maintenir en état de fonctionnement une menuiserie extérieure","image 18",3);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.03.02","Maintenir en état de fonctionnement une menuiserie extérieure","image 18",3);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -10616,20 +10619,20 @@
         <v>3</v>
       </c>
       <c r="C37" s="163" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="D37" t="s">
         <v>293</v>
       </c>
       <c r="E37" t="s">
-        <v>638</v>
+        <v>576</v>
       </c>
       <c r="F37" t="s">
         <v>221</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.3.3","Maintenir en état des stores et volets d'un bâtiment","image 19",3);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.03.03","Maintenir en état des stores et volets d'un bâtiment","image 19",3);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -10640,20 +10643,20 @@
         <v>3</v>
       </c>
       <c r="C38" s="163" t="s">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="D38" t="s">
         <v>294</v>
       </c>
       <c r="E38" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.3.4","Maintenir en état de fonctionnement une serrure d'un bâtiment","image 20",3);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.03.04","Maintenir en état de fonctionnement une serrure d'un bâtiment","image 20",3);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -10664,20 +10667,20 @@
         <v>4</v>
       </c>
       <c r="C39" s="163" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="D39" t="s">
         <v>295</v>
       </c>
       <c r="E39" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="F39" t="s">
         <v>221</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.1","Remettre en état un revêtement de sol dégradé","image 21",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.01","Remettre en état un revêtement de sol dégradé","image 21",4);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -10688,20 +10691,20 @@
         <v>4</v>
       </c>
       <c r="C40" s="163" t="s">
-        <v>590</v>
+        <v>642</v>
       </c>
       <c r="D40" t="s">
         <v>296</v>
       </c>
       <c r="E40" t="s">
-        <v>641</v>
+        <v>579</v>
       </c>
       <c r="F40" t="s">
         <v>221</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.2","Remettre en état un plafond revêtu d'une peinture (Finition B)","image 22",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.02","Remettre en état un plafond revêtu d'une peinture (Finition B)","image 22",4);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -10712,20 +10715,20 @@
         <v>4</v>
       </c>
       <c r="C41" s="163" t="s">
-        <v>591</v>
+        <v>643</v>
       </c>
       <c r="D41" t="s">
         <v>297</v>
       </c>
       <c r="E41" t="s">
-        <v>642</v>
+        <v>580</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.3","Remettre en état un plafond démontable dégradé","image 23",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.03","Remettre en état un plafond démontable dégradé","image 23",4);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -10736,20 +10739,20 @@
         <v>4</v>
       </c>
       <c r="C42" s="163" t="s">
-        <v>592</v>
+        <v>644</v>
       </c>
       <c r="D42" t="s">
         <v>298</v>
       </c>
       <c r="E42" t="s">
-        <v>643</v>
+        <v>581</v>
       </c>
       <c r="F42" t="s">
         <v>221</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.4","Remettre en état une cloison dégradée","image 24",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.04","Remettre en état une cloison dégradée","image 24",4);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -10760,20 +10763,20 @@
         <v>4</v>
       </c>
       <c r="C43" s="163" t="s">
-        <v>593</v>
+        <v>645</v>
       </c>
       <c r="D43" t="s">
         <v>299</v>
       </c>
       <c r="E43" t="s">
-        <v>644</v>
+        <v>582</v>
       </c>
       <c r="F43" t="s">
         <v>221</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.5","Remettre en état un mur dégradé revêtu de carreaux céramiques","image 25",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.05","Remettre en état un mur dégradé revêtu de carreaux céramiques","image 25",4);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -10784,20 +10787,20 @@
         <v>4</v>
       </c>
       <c r="C44" s="163" t="s">
-        <v>594</v>
+        <v>646</v>
       </c>
       <c r="D44" t="s">
         <v>300</v>
       </c>
       <c r="E44" t="s">
-        <v>645</v>
+        <v>583</v>
       </c>
       <c r="F44" t="s">
         <v>221</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.6","Remettre en état un mur dégradé revêtu d'un revêtement décoratif","image 26",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.06","Remettre en état un mur dégradé revêtu d'un revêtement décoratif","image 26",4);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -10808,20 +10811,20 @@
         <v>4</v>
       </c>
       <c r="C45" s="163" t="s">
-        <v>595</v>
+        <v>647</v>
       </c>
       <c r="D45" t="s">
         <v>301</v>
       </c>
       <c r="E45" t="s">
-        <v>646</v>
+        <v>584</v>
       </c>
       <c r="F45" t="s">
         <v>221</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.7","Remettre en état un mur dégradé revêtu d'une peinture (Finition B)","image 27",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.07","Remettre en état un mur dégradé revêtu d'une peinture (Finition B)","image 27",4);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -10832,20 +10835,20 @@
         <v>4</v>
       </c>
       <c r="C46" s="163" t="s">
-        <v>596</v>
+        <v>648</v>
       </c>
       <c r="D46" t="s">
         <v>302</v>
       </c>
       <c r="E46" t="s">
-        <v>647</v>
+        <v>585</v>
       </c>
       <c r="F46" t="s">
         <v>221</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.8","Remettre en état une menuiserie bois peinte dégradée","image 28",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.08","Remettre en état une menuiserie bois peinte dégradée","image 28",4);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -10856,20 +10859,20 @@
         <v>4</v>
       </c>
       <c r="C47" s="163" t="s">
-        <v>597</v>
+        <v>649</v>
       </c>
       <c r="D47" t="s">
         <v>303</v>
       </c>
       <c r="E47" t="s">
-        <v>648</v>
+        <v>586</v>
       </c>
       <c r="F47" t="s">
         <v>221</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.9","Remettre en état une serrure dégradée intérieure et/ou extérieure d'un bâtiment","image 29",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.09","Remettre en état une serrure dégradée intérieure et/ou extérieure d'un bâtiment","image 29",4);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -10880,20 +10883,20 @@
         <v>4</v>
       </c>
       <c r="C48" s="163" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="D48" t="s">
         <v>304</v>
       </c>
       <c r="E48" t="s">
-        <v>649</v>
+        <v>587</v>
       </c>
       <c r="F48" t="s">
         <v>221</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.10","Remettre en état du petit mobilier dégradé équipant un bâtiment","image 30",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.10","Remettre en état du petit mobilier dégradé équipant un bâtiment","image 30",4);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -10904,20 +10907,20 @@
         <v>4</v>
       </c>
       <c r="C49" s="163" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
       <c r="D49" t="s">
         <v>305</v>
       </c>
       <c r="E49" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="F49" t="s">
         <v>221</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.11","Poser et déposer des accessoires d'agencement","image 31",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.11","Poser et déposer des accessoires d'agencement","image 31",4);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -10928,20 +10931,20 @@
         <v>4</v>
       </c>
       <c r="C50" s="163" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="D50" t="s">
         <v>306</v>
       </c>
       <c r="E50" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
       <c r="F50" t="s">
         <v>221</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.4.12","Remettre en état des stores et volets dégradés équipant un bâtiment","image 32",4);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"1.04.12","Remettre en état des stores et volets dégradés équipant un bâtiment","image 32",4);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -10952,20 +10955,20 @@
         <v>5</v>
       </c>
       <c r="C51" s="163" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="D51" t="s">
         <v>307</v>
       </c>
       <c r="E51" t="s">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="F51" t="s">
         <v>221</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.1.1","Réaliser des modifications, des extensions de circuits prises et éclairages d'une installation monophasée","image 33",5);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.01.01","Réaliser des modifications, des extensions de circuits prises et éclairages d'une installation monophasée","image 33",5);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -10976,20 +10979,20 @@
         <v>5</v>
       </c>
       <c r="C52" s="163" t="s">
-        <v>601</v>
+        <v>651</v>
       </c>
       <c r="D52" t="s">
         <v>308</v>
       </c>
       <c r="E52" t="s">
-        <v>653</v>
+        <v>591</v>
       </c>
       <c r="F52" t="s">
         <v>221</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.1.2","Appréhender les risques électriques","image 34",5);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.01.02","Appréhender les risques électriques","image 34",5);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -11000,20 +11003,20 @@
         <v>6</v>
       </c>
       <c r="C53" s="163" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="D53" t="s">
         <v>309</v>
       </c>
       <c r="E53" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="F53" t="s">
         <v>221</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.2.1","Vérifier l'état de fonctionnement d'équipements terminaux d'une installation électrique courant fort","image 35",6);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.02.01","Vérifier l'état de fonctionnement d'équipements terminaux d'une installation électrique courant fort","image 35",6);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -11024,20 +11027,20 @@
         <v>6</v>
       </c>
       <c r="C54" s="163" t="s">
-        <v>603</v>
+        <v>653</v>
       </c>
       <c r="D54" t="s">
         <v>310</v>
       </c>
       <c r="E54" t="s">
-        <v>655</v>
+        <v>593</v>
       </c>
       <c r="F54" t="s">
         <v>221</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.2.2","Vérifier l'état de fonctionnement d'une installation téléphonique","image 36",6);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.02.02","Vérifier l'état de fonctionnement d'une installation téléphonique","image 36",6);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -11048,20 +11051,20 @@
         <v>6</v>
       </c>
       <c r="C55" s="163" t="s">
-        <v>604</v>
+        <v>654</v>
       </c>
       <c r="D55" t="s">
         <v>311</v>
       </c>
       <c r="E55" t="s">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="F55" t="s">
         <v>221</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.2.3","Vérifier l'état de fonctionnement des équipements de signalétique (Eclairage de Sécurité et Sécurité Incendie)","image 37",6);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.02.03","Vérifier l'état de fonctionnement des équipements de signalétique (Eclairage de Sécurité et Sécurité Incendie)","image 37",6);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -11072,20 +11075,20 @@
         <v>6</v>
       </c>
       <c r="C56" s="163" t="s">
-        <v>605</v>
+        <v>655</v>
       </c>
       <c r="D56" t="s">
         <v>312</v>
       </c>
       <c r="E56" t="s">
-        <v>657</v>
+        <v>595</v>
       </c>
       <c r="F56" t="s">
         <v>221</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.2.4","Vérifier l'état de fonctionnement d'équipements terminaux domotiques","image 38",6);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.02.04","Vérifier l'état de fonctionnement d'équipements terminaux domotiques","image 38",6);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -11096,20 +11099,20 @@
         <v>7</v>
       </c>
       <c r="C57" s="163" t="s">
-        <v>606</v>
+        <v>656</v>
       </c>
       <c r="D57" t="s">
         <v>313</v>
       </c>
       <c r="E57" t="s">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="F57" t="s">
         <v>221</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.3.1","Rechercher l'origine et résoudre un dysfonctionnement sur une installation électrique monophasée d'un bâtiment","image 39",7);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.03.01","Rechercher l'origine et résoudre un dysfonctionnement sur une installation électrique monophasée d'un bâtiment","image 39",7);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -11120,20 +11123,20 @@
         <v>7</v>
       </c>
       <c r="C58" s="163" t="s">
-        <v>607</v>
+        <v>657</v>
       </c>
       <c r="D58" t="s">
         <v>314</v>
       </c>
       <c r="E58" t="s">
-        <v>659</v>
+        <v>597</v>
       </c>
       <c r="F58" t="s">
         <v>221</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.3.2","Rechercher l'origine et résoudre un dysfonctionnement d'équipements terminaux téléphoniques d'un bâtiment","image 40",7);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.03.02","Rechercher l'origine et résoudre un dysfonctionnement d'équipements terminaux téléphoniques d'un bâtiment","image 40",7);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -11144,20 +11147,20 @@
         <v>7</v>
       </c>
       <c r="C59" s="163" t="s">
-        <v>608</v>
+        <v>658</v>
       </c>
       <c r="D59" t="s">
         <v>315</v>
       </c>
       <c r="E59" t="s">
-        <v>660</v>
+        <v>598</v>
       </c>
       <c r="F59" t="s">
         <v>221</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.3.3","Identifier et alerter d'un dysfonctionnement d'équipements terminaux (Eclairage de Sécurité et Sécurité Incendie), d'un bâtiment","image 41",7);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.03.03","Identifier et alerter d'un dysfonctionnement d'équipements terminaux (Eclairage de Sécurité et Sécurité Incendie), d'un bâtiment","image 41",7);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -11168,20 +11171,20 @@
         <v>7</v>
       </c>
       <c r="C60" s="163" t="s">
-        <v>609</v>
+        <v>659</v>
       </c>
       <c r="D60" t="s">
         <v>316</v>
       </c>
       <c r="E60" t="s">
-        <v>661</v>
+        <v>599</v>
       </c>
       <c r="F60" t="s">
         <v>221</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.3.4","Identifier et alerter d'un dysfonctionnement d'équipements terminaux domotiques","image 42",7);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"2.03.04","Identifier et alerter d'un dysfonctionnement d'équipements terminaux domotiques","image 42",7);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -11192,20 +11195,20 @@
         <v>8</v>
       </c>
       <c r="C61" s="163" t="s">
-        <v>610</v>
+        <v>660</v>
       </c>
       <c r="D61" t="s">
         <v>317</v>
       </c>
       <c r="E61" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="F61" t="s">
         <v>221</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.1.1","Réaliser des extensions d'une installation sanitaire","image 43",8);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.01.01","Réaliser des extensions d'une installation sanitaire","image 43",8);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -11216,20 +11219,20 @@
         <v>8</v>
       </c>
       <c r="C62" s="163" t="s">
-        <v>611</v>
+        <v>661</v>
       </c>
       <c r="D62" t="s">
         <v>318</v>
       </c>
       <c r="E62" t="s">
-        <v>663</v>
+        <v>601</v>
       </c>
       <c r="F62" t="s">
         <v>221</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.1.2","Réaliser des modifications d'une installation sanitaire","image 44",8);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.01.02","Réaliser des modifications d'une installation sanitaire","image 44",8);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -11240,20 +11243,20 @@
         <v>9</v>
       </c>
       <c r="C63" s="163" t="s">
-        <v>612</v>
+        <v>662</v>
       </c>
       <c r="D63" t="s">
         <v>319</v>
       </c>
       <c r="E63" t="s">
-        <v>664</v>
+        <v>602</v>
       </c>
       <c r="F63" t="s">
         <v>221</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.2.1","Vérifier l'état de fonctionnement un réseau d'évacuation EU/EV d'un bâtiment","image 45",9);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.02.01","Vérifier l'état de fonctionnement un réseau d'évacuation EU/EV d'un bâtiment","image 45",9);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -11264,20 +11267,20 @@
         <v>9</v>
       </c>
       <c r="C64" s="163" t="s">
-        <v>613</v>
+        <v>663</v>
       </c>
       <c r="D64" t="s">
         <v>320</v>
       </c>
       <c r="E64" t="s">
-        <v>665</v>
+        <v>603</v>
       </c>
       <c r="F64" t="s">
         <v>221</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.2.2","Vérifier l'état de fonctionnement un réseau d'alimentation EF/EC d'un bâtiment","image 46",9);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.02.02","Vérifier l'état de fonctionnement un réseau d'alimentation EF/EC d'un bâtiment","image 46",9);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11288,20 +11291,20 @@
         <v>9</v>
       </c>
       <c r="C65" s="163" t="s">
-        <v>614</v>
+        <v>664</v>
       </c>
       <c r="D65" t="s">
         <v>321</v>
       </c>
       <c r="E65" t="s">
-        <v>666</v>
+        <v>604</v>
       </c>
       <c r="F65" t="s">
         <v>221</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.2.3","Vérifier l'état de fonctionnement d'un appareil sanitaire","image 47",9);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.02.03","Vérifier l'état de fonctionnement d'un appareil sanitaire","image 47",9);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11312,20 +11315,20 @@
         <v>9</v>
       </c>
       <c r="C66" s="163" t="s">
-        <v>615</v>
+        <v>665</v>
       </c>
       <c r="D66" t="s">
         <v>322</v>
       </c>
       <c r="E66" t="s">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="F66" t="s">
         <v>221</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.2.4","Vérifier l'état des équipements terminaux d'une installation CVC d'un bâtiment","image 48",9);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.02.04","Vérifier l'état des équipements terminaux d'une installation CVC d'un bâtiment","image 48",9);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -11336,20 +11339,20 @@
         <v>10</v>
       </c>
       <c r="C67" s="163" t="s">
-        <v>616</v>
+        <v>666</v>
       </c>
       <c r="D67" t="s">
         <v>323</v>
       </c>
       <c r="E67" t="s">
-        <v>668</v>
+        <v>606</v>
       </c>
       <c r="F67" t="s">
         <v>221</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.3.1","Rechercher l'origine et résoudre un dysfonctionnement d'un réseau EU/EV","image 49",10);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.03.01","Rechercher l'origine et résoudre un dysfonctionnement d'un réseau EU/EV","image 49",10);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -11360,20 +11363,20 @@
         <v>10</v>
       </c>
       <c r="C68" s="163" t="s">
-        <v>617</v>
+        <v>667</v>
       </c>
       <c r="D68" t="s">
         <v>324</v>
       </c>
       <c r="E68" t="s">
-        <v>669</v>
+        <v>607</v>
       </c>
       <c r="F68" t="s">
         <v>221</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.3.2","Rechercher l'origine et résoudre un dysfonctionnement d'un réseau EF/EC","image 50",10);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.03.02","Rechercher l'origine et résoudre un dysfonctionnement d'un réseau EF/EC","image 50",10);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -11384,20 +11387,20 @@
         <v>10</v>
       </c>
       <c r="C69" s="163" t="s">
-        <v>618</v>
+        <v>668</v>
       </c>
       <c r="D69" t="s">
         <v>325</v>
       </c>
       <c r="E69" t="s">
-        <v>670</v>
+        <v>608</v>
       </c>
       <c r="F69" t="s">
         <v>221</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.3.3","Rechercher l'origine et résoudre un dysfonctionnement d'un appareil sanitaire","image 51",10);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.03.03","Rechercher l'origine et résoudre un dysfonctionnement d'un appareil sanitaire","image 51",10);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -11408,20 +11411,20 @@
         <v>10</v>
       </c>
       <c r="C70" s="163" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
       <c r="D70" t="s">
         <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>671</v>
+        <v>609</v>
       </c>
       <c r="F70" t="s">
         <v>221</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.3.4","Rechercher l'origine et résoudre un dysfonctionnement d'un équipement terminal CVC","image 52",10);</v>
+        <v>INSERT INTO amb_operations(idOperation, numeroOperation, intituleOperation, schemaOperation, idMesm) VALUES (NULL,"3.03.04","Rechercher l'origine et résoudre un dysfonctionnement d'un équipement terminal CVC","image 52",10);</v>
       </c>
     </row>
   </sheetData>
